--- a/contents/battle_5/battle_5.xlsx
+++ b/contents/battle_5/battle_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C52A8-33C0-4863-9A2B-6A7290FD17C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D469E-C5D5-4ACF-B490-BFD958616D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="66">
   <si>
     <t>x</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>tunnel_5,tunnel_8,tunnel_9,tunnel_crossing</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="J63" sqref="J63:M63"/>
     </sheetView>
   </sheetViews>
@@ -3242,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,9 +3364,15 @@
       <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -3375,9 +3384,15 @@
       <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -3389,9 +3404,15 @@
       <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -3403,9 +3424,15 @@
       <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3417,9 +3444,15 @@
       <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3431,9 +3464,15 @@
       <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -3445,6 +3484,15 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -3456,6 +3504,15 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3467,6 +3524,15 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -3478,6 +3544,15 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3489,8 +3564,17 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
@@ -3500,8 +3584,17 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>56</v>
       </c>
@@ -3511,8 +3604,17 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -3522,8 +3624,17 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
@@ -3533,8 +3644,17 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -3543,6 +3663,15 @@
       </c>
       <c r="C21">
         <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3555,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +4093,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -3999,7 +4128,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -4174,7 +4303,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E18" s="5">
         <v>3</v>
@@ -4209,7 +4338,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -4734,7 +4863,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5">
         <v>3</v>
@@ -4769,7 +4898,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5">
         <v>3</v>
@@ -4804,7 +4933,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5">
         <v>3</v>
@@ -4839,7 +4968,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E37" s="5">
         <v>3</v>

--- a/contents/battle_5/battle_5.xlsx
+++ b/contents/battle_5/battle_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D469E-C5D5-4ACF-B490-BFD958616D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63179F84-DCAA-4407-85A2-6584ACAB6611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
   <si>
     <t>x</t>
   </si>
@@ -222,10 +222,19 @@
     <t>tunnel_crossing</t>
   </si>
   <si>
-    <t>tunnel_5,tunnel_8,tunnel_9,tunnel_crossing</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>cavalry_distance</t>
+  </si>
+  <si>
+    <t>cavalry_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>cavalry</t>
+  </si>
+  <si>
+    <t>tunnel_1,tunnel_2,tunnel_3,tunnel_4,tunnel_5,tunnel_6,tunnel_7,tunnel_8,tunnel_9,tunnel_crossing</t>
   </si>
 </sst>
 </file>
@@ -620,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63:M63"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1290,9 @@
       <c r="F32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,7 +2299,9 @@
         <v>62</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="G82" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3243,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +3267,7 @@
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -3271,10 +3284,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -3293,8 +3309,11 @@
       <c r="F2" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
@@ -3313,8 +3332,11 @@
       <c r="F3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -3333,8 +3355,11 @@
       <c r="F4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -3353,8 +3378,11 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3373,8 +3401,11 @@
       <c r="F6" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -3393,8 +3424,11 @@
       <c r="F7" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -3413,8 +3447,11 @@
       <c r="F8" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
@@ -3433,8 +3470,11 @@
       <c r="F9" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -3453,8 +3493,11 @@
       <c r="F10" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>60</v>
       </c>
@@ -3473,13 +3516,16 @@
       <c r="F11" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3493,184 +3539,7 @@
       <c r="F12" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="G12" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3684,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -4128,7 +3997,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -4303,7 +4172,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5">
         <v>3</v>
@@ -4338,7 +4207,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -4863,7 +4732,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5">
         <v>3</v>
@@ -4898,7 +4767,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="5">
         <v>3</v>
@@ -4933,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5">
         <v>3</v>
@@ -4968,7 +4837,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="5">
         <v>3</v>
@@ -6578,10 +6447,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFBD135-D654-4DBC-B6EE-BD53763E2425}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,17 +6517,33 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>0.5</v>
       </c>
     </row>
